--- a/results/mp/deberta/corona/confidence/210/stop-words-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-0.5/avg_0.003_scores.xlsx
@@ -118,12 +118,12 @@
     <t>fresh</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
@@ -139,10 +139,10 @@
     <t>hope</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>relief</t>
@@ -1445,25 +1445,25 @@
         <v>34</v>
       </c>
       <c r="K21">
-        <v>0.6939655172413793</v>
+        <v>0.68</v>
       </c>
       <c r="L21">
-        <v>161</v>
+        <v>68</v>
       </c>
       <c r="M21">
-        <v>168</v>
+        <v>74</v>
       </c>
       <c r="N21">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="O21">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>71</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1471,25 +1471,25 @@
         <v>35</v>
       </c>
       <c r="K22">
-        <v>0.68</v>
+        <v>0.6736401673640168</v>
       </c>
       <c r="L22">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="M22">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="N22">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>32</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1627,25 +1627,25 @@
         <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5688073394495413</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L28">
-        <v>186</v>
+        <v>38</v>
       </c>
       <c r="M28">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="N28">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O28">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P28" t="b">
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>141</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1653,25 +1653,25 @@
         <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5588235294117647</v>
+        <v>0.5470588235294118</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="M29">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="N29">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>30</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="10:17">
